--- a/analyses/scrapeUSDAseedmanual/scraping/usdaDataScraping.xlsx
+++ b/analyses/scrapeUSDAseedmanual/scraping/usdaDataScraping.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\egret\analyses\scrapeUSDAseedmanual\scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584CE79C-AEC1-48FD-B427-6F7CFBD73EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A33B8E7-F039-41E3-BA68-4679491CF75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Meta" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>pdf_page_number</t>
   </si>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>any pretreatment before the germination</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>temperature of stratification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,18 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total germination percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>averaged germination percentage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>germination rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>averaged germinative energy percentage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,6 +202,65 @@
   </si>
   <si>
     <t>pretreament time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50%_germ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>any pretreatment before the germination (chemical, storage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>germination ratec (only the percentage data)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total germination percentage (if it is germination percentage without any specification, data should go to this column)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>averaged germination percentage (only enter here if it specify it's average germination percentage)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any information you think will be helpful for data cleaning later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>days of 50% germination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extra notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the ranges should be entered as 'to', e.g.: "5-10" in the table should be entered as "5 to 10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If it is a dash in the table, it is NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For cold stratification and warm stratification, if they specify in the table it is 0, I think we should enter them as 0 instead of leaving them as blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>avg_germination_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_germination_percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>germination_time_days</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,9 +304,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -546,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -653,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -661,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -669,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
@@ -677,7 +723,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -685,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -693,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -701,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
@@ -709,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
@@ -717,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
@@ -725,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -733,31 +779,31 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +811,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +819,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,7 +827,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +843,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,26 +867,63 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC4DDB-17EE-463A-9304-F699F6DBC2E2}">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +1008,12 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1"/>
+      <c r="AC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/analyses/scrapeUSDAseedmanual/scraping/usdaDataScraping.xlsx
+++ b/analyses/scrapeUSDAseedmanual/scraping/usdaDataScraping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\egret\analyses\scrapeUSDAseedmanual\scraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A33B8E7-F039-41E3-BA68-4679491CF75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF6128-D7C2-44E5-A62B-9F8EC857F5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Meta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>pdf_page_number</t>
   </si>
@@ -55,9 +55,6 @@
     <t>pretreatment</t>
   </si>
   <si>
-    <t>stratification_temp_C</t>
-  </si>
-  <si>
     <t>warm_stratification_days</t>
   </si>
   <si>
@@ -142,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>temperature of stratification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>warm stratification duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,6 +254,22 @@
   </si>
   <si>
     <t>germination_time_days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold_stratification_temp_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm_stratification_temp_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature of warm stratification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>temperature of cold stratification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -617,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -659,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
@@ -667,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -675,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -683,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -691,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -699,7 +708,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -707,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -715,195 +724,203 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>52</v>
+      <c r="A29" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>53</v>
+      <c r="A30" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -915,15 +932,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4AC4DDB-17EE-463A-9304-F699F6DBC2E2}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AE1"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -952,67 +969,70 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
+      <c r="AD1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
